--- a/data/reports/W05_2026.xlsx
+++ b/data/reports/W05_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FD1B7-3798-4B4F-9EBE-01D54717084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F344EF0-9047-4065-80C1-5FD71699F844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>RMIT Study Expo - printed assets</t>
   </si>
   <si>
-    <t>GCMC Design Team Weeky Report</t>
-  </si>
-  <si>
     <t>H1 Domestic Flashtalking 300 programs</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Comms Holdays assets</t>
+  </si>
+  <si>
+    <t>Welcome, Tuyet | GCMC Weekly Report</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -706,16 +706,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -737,10 +737,10 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -749,15 +749,15 @@
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -783,12 +783,12 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -800,15 +800,15 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -817,15 +817,15 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -842,10 +842,10 @@
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -854,15 +854,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -871,15 +871,15 @@
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
@@ -888,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -914,10 +914,10 @@
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -926,15 +926,15 @@
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
@@ -943,15 +943,15 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
@@ -960,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -977,15 +977,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1031,15 +1031,15 @@
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -1048,15 +1048,15 @@
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1076,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>9</v>
@@ -1085,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1094,36 +1094,36 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/reports/W05_2026.xlsx
+++ b/data/reports/W05_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F344EF0-9047-4065-80C1-5FD71699F844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19532C62-031F-482B-9B50-7AEB9C374A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
     <t>Comms Holdays assets</t>
   </si>
   <si>
-    <t>Welcome, Tuyet | GCMC Weekly Report</t>
+    <t>Welcome, Tuyet · GCMC Weekly Report</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/data/reports/W05_2026.xlsx
+++ b/data/reports/W05_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19532C62-031F-482B-9B50-7AEB9C374A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801890B5-95F8-45FE-B8EC-2A0F712733AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -923,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>59</v>
